--- a/Daily/Ljung_Box/First Difference/fast_retailing.xlsx
+++ b/Daily/Ljung_Box/First Difference/fast_retailing.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.006535790401587581</v>
+        <v>0.1042438078565502</v>
+      </c>
+      <c r="C2">
+        <v>0.7467951385633651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.598661572951283</v>
+        <v>0.1234724056927842</v>
+      </c>
+      <c r="C3">
+        <v>0.9401308579269511</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.378374422884781</v>
+        <v>0.3192564463965092</v>
       </c>
       <c r="C4">
-        <v>0.06605717745350728</v>
+        <v>0.9563670994556051</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.632134128992458</v>
+        <v>0.3363891802662869</v>
       </c>
       <c r="C5">
-        <v>0.1626642425123382</v>
+        <v>0.9873456300150312</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.697076300182477</v>
+        <v>0.5004523205204726</v>
       </c>
       <c r="C6">
-        <v>0.2960869964934897</v>
+        <v>0.992106721726848</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.111959241270137</v>
+        <v>0.5014363114324654</v>
       </c>
       <c r="C7">
-        <v>0.2760014846866918</v>
+        <v>0.9978209812203266</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.114983405547583</v>
+        <v>0.5649118730665343</v>
       </c>
       <c r="C8">
-        <v>0.4020093635206699</v>
+        <v>0.9991723872254198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.17586862870268</v>
+        <v>0.5980938376884933</v>
       </c>
       <c r="C9">
-        <v>0.5214628013724922</v>
+        <v>0.9997373524755073</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.071159191058386</v>
+        <v>1.286538657832965</v>
       </c>
       <c r="C10">
-        <v>0.5314655010406657</v>
+        <v>0.9984423505447347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.341512689891286</v>
+        <v>1.290185752462548</v>
       </c>
       <c r="C11">
-        <v>0.6090355089514683</v>
+        <v>0.9994538376503077</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.305902808016436</v>
+        <v>2.142775419956406</v>
       </c>
       <c r="C12">
-        <v>0.5036367507424808</v>
+        <v>0.9979281329768945</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8.306342584827044</v>
+        <v>2.270721386685012</v>
       </c>
       <c r="C13">
-        <v>0.5989410285403247</v>
+        <v>0.9988639874663462</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.138288690342815</v>
+        <v>3.862037147958908</v>
       </c>
       <c r="C14">
-        <v>0.6091292735811586</v>
+        <v>0.9925723166824494</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.818436825855828</v>
+        <v>4.340493406161603</v>
       </c>
       <c r="C15">
-        <v>0.6318854461701213</v>
+        <v>0.9930445956787755</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.854673226935843</v>
+        <v>4.354679493756024</v>
       </c>
       <c r="C16">
-        <v>0.7057728862425745</v>
+        <v>0.9963234536297033</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.31079916267734</v>
+        <v>4.759692628014617</v>
       </c>
       <c r="C17">
-        <v>0.7391258044121705</v>
+        <v>0.9968245752569077</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.82775476982277</v>
+        <v>5.009398790473472</v>
       </c>
       <c r="C18">
-        <v>0.7647062246851775</v>
+        <v>0.9977441870358056</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.85427877033717</v>
+        <v>5.148664439046652</v>
       </c>
       <c r="C19">
-        <v>0.8183892713650407</v>
+        <v>0.9986091883622782</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12.19718737399812</v>
+        <v>6.220065933423725</v>
       </c>
       <c r="C20">
-        <v>0.7880524151873262</v>
+        <v>0.9973513641106818</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13.45678342933015</v>
+        <v>7.274588002923144</v>
       </c>
       <c r="C21">
-        <v>0.763754366071099</v>
+        <v>0.9956824601575868</v>
       </c>
     </row>
   </sheetData>
